--- a/biology/Botanique/Salix_suchowensis/Salix_suchowensis.xlsx
+++ b/biology/Botanique/Salix_suchowensis/Salix_suchowensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix suchowensis est une espèce de saule de la famille des Salicaceae, originaire de Chine.
@@ -512,9 +524,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix mongolica Siuz. var. 'suchowensis' (Cheng) N. Chao &amp; G. T. Gong (J. Sichuan. For. Sci. Technol. 27: 11. 2006)[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix mongolica Siuz. var. 'suchowensis' (Cheng) N. Chao &amp; G. T. Gong (J. Sichuan. For. Sci. Technol. 27: 11. 2006).</t>
         </is>
       </c>
     </row>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix suchowensis  est un arbuste. Ses rameaux sont jaune-vert-rouge ou violacés et glabres. Les pousses juvéniles sont un peu tomenteuses au début, devenant subglabres ensuite. Les stipules, de linéaires à lancéolées, mesurent de 1 à 1,5 cm. Le pétiole fait 5 mm, il est à marge dentée et glandulaire, habituellement tomenteux. Lee limbe des feuilles est lancéolé, de 7 à 11 × 1,5 cm, abaxialement pâle, les deux faces sont glabres, tomenteuses quand elles sont jeunes, cunéiformes et vertes, de base adaxialement terne, à marge denticulée, glandulaire. L'apex est courtement acuminé. Les nervures latérales divergent de la nervure médiane brunâtre à 45-90°. 
 La floraison est précoce. Le chaton mâle mesure de  3 à 4 cm × 4-5 mm,  il est sessile ou subsessile, avec des bractées en forme d'écailles à la base. Le rachis est tomenteux gris, avec des bractées brunes, à longues villosités obovales, l'apex est obtus, arrondi, légèrement plus sombre. La fleur mâle porte des glandes adaxiales, deux étamines, soudées. Le chaton femelle fait 4 mm d'épaisseur. La fleur femelle porte un ovaire conique, densément tomenteux, gris. Le stipe est court. Le style supporte deux stigmates. La capsule est pileuse. La floraison a lieu en mars pour un fructification en avril-mai.
 L'espèce apprécie la plaine, elle est cultivée.
  Salix suchowensis  se rencontre en Chine, dans l'est du Henan, le Jiangsu, le sud du Shandong et le nord du Zhejiang.
-L'espèce est rès semblable à Salix linearistipularis mais ses ramilles sont plus richement colorées, ses chatons plus minces, le style plus long[2].
+L'espèce est rès semblable à Salix linearistipularis mais ses ramilles sont plus richement colorées, ses chatons plus minces, le style plus long.
 </t>
         </is>
       </c>
